--- a/Sonia_IndiaLab_English_20200708.xlsx
+++ b/Sonia_IndiaLab_English_20200708.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\Sonia Quality Assurance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7CC74F-658E-40A5-9B14-BD51287D22D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -16,9 +22,11 @@
     <sheet name="DataBase_Details" sheetId="13" r:id="rId7"/>
     <sheet name="Table_Missing" sheetId="14" r:id="rId8"/>
     <sheet name="Field Missing" sheetId="15" r:id="rId9"/>
+    <sheet name="Application_Used_More_DB" sheetId="16" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ini File Details'!$A$1:$J$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Application_Used_More_DB!$A$1:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ini File Details'!$A$1:$K$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'App placement (necessary)'!$A$1:$E$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'アプリ配置 (必須)'!$A$1:$D$86</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'App placement (necessary)'!$1:$1</definedName>
@@ -29,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="566">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2452,12 +2460,24 @@
       <t xml:space="preserve">  </t>
     </r>
   </si>
+  <si>
+    <t>New Sql Script File Name</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>STRM.sql</t>
+  </si>
+  <si>
+    <t>best_wrn_new.sql</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2919,25 +2939,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3048,7 +3068,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3080,9 +3100,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3114,6 +3152,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3289,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3303,7 +3359,7 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -3311,7 +3367,7 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3323,7 +3379,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
@@ -3337,7 +3393,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="52" t="s">
         <v>14</v>
@@ -3349,7 +3405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -3357,7 +3413,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
       <c r="B5" s="52" t="s">
         <v>9</v>
@@ -3369,7 +3425,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -3377,7 +3433,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3389,7 +3445,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -3401,7 +3457,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -3413,7 +3469,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -3425,7 +3481,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3437,7 +3493,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3449,7 +3505,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>1</v>
       </c>
@@ -3463,7 +3519,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3475,7 +3531,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -3487,7 +3543,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -3499,7 +3555,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -3511,7 +3567,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3523,7 +3579,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -3535,7 +3591,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3547,7 +3603,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -3559,7 +3615,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -3571,7 +3627,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -3583,7 +3639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -3595,7 +3651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -3607,7 +3663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -3619,7 +3675,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -3631,7 +3687,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -3643,7 +3699,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -3655,7 +3711,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3667,7 +3723,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -3679,7 +3735,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3691,7 +3747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -3703,7 +3759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -3715,7 +3771,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -3727,7 +3783,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -3739,7 +3795,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -3751,7 +3807,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -3763,7 +3819,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -3775,7 +3831,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -3787,7 +3843,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -3799,7 +3855,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -3811,7 +3867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -3823,7 +3879,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -3835,7 +3891,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -3847,7 +3903,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -3859,7 +3915,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -3871,7 +3927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -3883,7 +3939,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="52" t="s">
         <v>2</v>
       </c>
@@ -3897,7 +3953,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -3909,7 +3965,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -3921,7 +3977,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -3933,7 +3989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -3945,7 +4001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -3957,7 +4013,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -3969,7 +4025,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -3981,7 +4037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -3993,7 +4049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -4005,7 +4061,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -4017,7 +4073,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -4029,7 +4085,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="52" t="s">
         <v>35</v>
       </c>
@@ -4043,7 +4099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -4055,7 +4111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -4067,7 +4123,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="52" t="s">
         <v>36</v>
       </c>
@@ -4081,7 +4137,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -4093,7 +4149,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -4105,7 +4161,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="52" t="s">
         <v>3</v>
       </c>
@@ -4119,27 +4175,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -4151,27 +4207,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="52"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -4183,7 +4239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -4195,7 +4251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="52" t="s">
         <v>127</v>
       </c>
@@ -4209,47 +4265,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="52"/>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="53" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="52"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -4261,7 +4317,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -4273,7 +4329,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="52" t="s">
         <v>4</v>
       </c>
@@ -4287,27 +4343,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -4319,7 +4375,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -4331,19 +4387,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -4352,14 +4410,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4371,8 +4427,427 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842EE351-6A8B-438A-8E5A-6437F50A8F1F}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="5" width="23.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="52"/>
+      <c r="B3" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="52"/>
+      <c r="B4" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="52"/>
+      <c r="B5" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="52"/>
+      <c r="B6" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="52"/>
+      <c r="B7" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="52"/>
+      <c r="B8" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="52"/>
+      <c r="B9" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="52"/>
+      <c r="B10" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="52"/>
+      <c r="B11" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="52"/>
+      <c r="B12" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="52"/>
+      <c r="B13" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="52"/>
+      <c r="B14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="52"/>
+      <c r="B15" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="52"/>
+      <c r="B16" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="52"/>
+      <c r="B17" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="52"/>
+      <c r="B18" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="52"/>
+      <c r="B19" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E19" xr:uid="{C27EA6C9-5A4A-4A36-9D88-5DE9E5A25EEA}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4386,7 +4861,7 @@
       <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -4395,7 +4870,7 @@
     <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4408,7 +4883,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -4423,9 +4898,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -4436,18 +4911,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
-      <c r="B4" s="59"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="52"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="52" t="s">
@@ -4458,16 +4933,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
-      <c r="B6" s="59"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="52"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -4480,7 +4955,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -4495,7 +4970,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -4510,7 +4985,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -4523,7 +4998,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -4536,7 +5011,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -4549,7 +5024,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>166</v>
       </c>
@@ -4564,7 +5039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -4577,7 +5052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -4590,7 +5065,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -4603,7 +5078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -4616,7 +5091,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -4629,7 +5104,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -4642,7 +5117,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -4655,7 +5130,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -4668,7 +5143,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -4681,7 +5156,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -4694,7 +5169,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -4707,7 +5182,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -4720,7 +5195,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -4733,7 +5208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -4746,7 +5221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -4759,7 +5234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -4772,7 +5247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -4785,7 +5260,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -4798,7 +5273,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -4811,7 +5286,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -4824,7 +5299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -4837,7 +5312,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -4850,7 +5325,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -4863,7 +5338,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -4876,7 +5351,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -4889,7 +5364,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -4902,7 +5377,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -4915,7 +5390,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -4928,7 +5403,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -4943,7 +5418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -4958,7 +5433,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -4973,7 +5448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -4986,7 +5461,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -4999,7 +5474,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -5012,7 +5487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -5025,7 +5500,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="52" t="s">
         <v>175</v>
       </c>
@@ -5040,7 +5515,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -5053,7 +5528,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -5066,7 +5541,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -5079,7 +5554,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -5092,7 +5567,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -5105,7 +5580,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -5118,7 +5593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -5131,7 +5606,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -5146,7 +5621,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -5159,7 +5634,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -5174,7 +5649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -5187,7 +5662,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="52" t="s">
         <v>176</v>
       </c>
@@ -5202,7 +5677,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -5215,7 +5690,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -5228,7 +5703,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="52" t="s">
         <v>168</v>
       </c>
@@ -5243,7 +5718,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -5256,7 +5731,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -5269,7 +5744,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="52" t="s">
         <v>169</v>
       </c>
@@ -5284,12 +5759,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5297,16 +5772,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="55"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -5319,12 +5794,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5332,16 +5807,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="52"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -5354,7 +5829,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -5367,7 +5842,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="52" t="s">
         <v>106</v>
       </c>
@@ -5382,12 +5857,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="52"/>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="53" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5395,21 +5870,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="52"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="55"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5417,16 +5892,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -5439,7 +5914,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -5452,7 +5927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="52" t="s">
         <v>104</v>
       </c>
@@ -5467,12 +5942,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5480,16 +5955,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -5502,7 +5977,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -5515,35 +5990,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5560,6 +6029,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -5571,14 +6046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
@@ -5586,12 +6061,12 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -5600,7 +6075,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="60" t="s">
         <v>147</v>
       </c>
@@ -5611,7 +6086,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="60"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -5620,7 +6095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="60"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -5629,7 +6104,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75">
+    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A7" s="60"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -5638,7 +6113,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -5647,7 +6122,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -5658,7 +6133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5669,7 +6144,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -5691,14 +6166,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
@@ -5711,7 +6186,7 @@
     <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232">
+    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -5736,7 +6211,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27">
+    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -5759,7 +6234,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54">
+    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -5780,7 +6255,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232">
+    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5793,7 +6268,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232">
+    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -5814,7 +6289,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232">
+    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5827,7 +6302,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232">
+    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -5846,7 +6321,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27">
+    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -5865,7 +6340,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232">
+    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -5884,7 +6359,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232">
+    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -5901,7 +6376,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232">
+    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -5918,7 +6393,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232">
+    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -5935,7 +6410,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232">
+    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5945,7 +6420,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232">
+    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5955,7 +6430,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1">
+    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="52" t="s">
         <v>166</v>
       </c>
@@ -21199,7 +21674,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232">
+    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -21220,7 +21695,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -21241,7 +21716,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -21262,7 +21737,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1">
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -21281,7 +21756,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1">
+    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -21302,7 +21777,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -21323,7 +21798,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -21344,7 +21819,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1">
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -21365,7 +21840,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -21386,7 +21861,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -21407,7 +21882,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -21428,7 +21903,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -21449,7 +21924,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1">
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -21468,7 +21943,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -21489,7 +21964,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -21510,7 +21985,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -21531,7 +22006,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -21552,7 +22027,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -21573,7 +22048,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -21594,7 +22069,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -21615,7 +22090,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -21636,7 +22111,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -21657,7 +22132,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -21680,7 +22155,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -21703,7 +22178,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -21726,7 +22201,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -21749,7 +22224,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -21772,7 +22247,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -21793,7 +22268,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1">
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -21812,7 +22287,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1">
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -21831,7 +22306,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -21850,7 +22325,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1">
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -21867,7 +22342,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1">
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -21884,7 +22359,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1">
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="52"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -21901,7 +22376,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1">
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -21918,7 +22393,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -21929,7 +22404,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -21940,7 +22415,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="52" t="s">
         <v>175</v>
       </c>
@@ -21959,7 +22434,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1">
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -21976,7 +22451,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -21997,7 +22472,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1">
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -22014,7 +22489,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1">
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -22031,7 +22506,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1">
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -22048,7 +22523,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1">
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -22065,7 +22540,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1">
+    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -22082,7 +22557,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1">
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -22101,7 +22576,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1">
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -22118,7 +22593,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
+    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -22137,7 +22612,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1">
+    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -22154,7 +22629,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1">
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -22165,7 +22640,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1">
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -22176,7 +22651,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
         <v>176</v>
       </c>
@@ -22199,7 +22674,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="61"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -22220,7 +22695,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1">
+    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="61"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -22237,7 +22712,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1">
+    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -22248,7 +22723,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1">
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -22259,7 +22734,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
         <v>168</v>
       </c>
@@ -22282,7 +22757,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="61"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -22303,7 +22778,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1">
+    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="61"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -22320,7 +22795,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1">
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -22331,7 +22806,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1">
+    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -22342,7 +22817,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="52" t="s">
         <v>169</v>
       </c>
@@ -22365,7 +22840,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -22386,7 +22861,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1">
+    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -22399,7 +22874,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1">
+    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -22420,7 +22895,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1">
+    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -22441,7 +22916,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1">
+    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="52"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -22454,7 +22929,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -22475,7 +22950,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1">
+    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -22492,7 +22967,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1">
+    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -22503,7 +22978,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1">
+    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -22514,7 +22989,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="52" t="s">
         <v>106</v>
       </c>
@@ -22537,7 +23012,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="52"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -22558,7 +23033,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1">
+    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="52"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -22571,7 +23046,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="52"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -22592,7 +23067,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1">
+    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="52"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -22605,7 +23080,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="52"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -22626,7 +23101,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1">
+    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="52"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -22643,7 +23118,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1">
+    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -22654,7 +23129,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1">
+    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -22665,7 +23140,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1">
+    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="52" t="s">
         <v>104</v>
       </c>
@@ -22688,7 +23163,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="52"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -22709,7 +23184,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1">
+    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="52"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -22722,7 +23197,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="52"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -22743,7 +23218,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1">
+    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="52"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -22760,7 +23235,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1">
+    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -22771,7 +23246,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1">
+    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -22782,7 +23257,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1">
+    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -22793,7 +23268,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1">
+    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -22804,7 +23279,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1">
+    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -22815,7 +23290,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1">
+    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -22824,7 +23299,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1">
+    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -22833,7 +23308,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1">
+    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -22842,7 +23317,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1">
+    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -22852,7 +23327,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1">
+    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -22862,7 +23337,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1">
+    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -22872,7 +23347,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1">
+    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -22882,7 +23357,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1">
+    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -22892,7 +23367,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1">
+    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -22902,7 +23377,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1">
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -22912,7 +23387,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1">
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -22922,7 +23397,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1">
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -22932,7 +23407,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1">
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -22942,7 +23417,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1">
+    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -22952,7 +23427,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1">
+    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -22962,7 +23437,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1">
+    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -22972,7 +23447,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1">
+    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -22982,7 +23457,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1">
+    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -22992,7 +23467,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1">
+    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -23002,7 +23477,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1">
+    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -23012,7 +23487,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1">
+    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -23022,7 +23497,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1">
+    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -23032,7 +23507,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1">
+    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -23042,7 +23517,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1">
+    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -23052,7 +23527,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1">
+    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -23062,7 +23537,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1">
+    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -23072,7 +23547,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1">
+    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -23082,7 +23557,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1">
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -23092,7 +23567,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1">
+    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -23102,7 +23577,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1">
+    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -23112,7 +23587,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1">
+    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -23122,7 +23597,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1">
+    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -23132,7 +23607,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1">
+    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -23142,7 +23617,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1">
+    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -23152,7 +23627,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1">
+    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -23162,7 +23637,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1">
+    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -23172,7 +23647,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1">
+    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -23199,14 +23674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.875" customWidth="1"/>
@@ -23215,12 +23690,13 @@
     <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="89.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -23241,16 +23717,19 @@
         <v>341</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -23272,17 +23751,18 @@
       <c r="G2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="47" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -23302,17 +23782,18 @@
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="K3" s="33" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -23332,17 +23813,18 @@
       <c r="G4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="52" t="s">
         <v>166</v>
       </c>
@@ -23356,17 +23838,18 @@
       <c r="E5" s="35"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="K5" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -23384,17 +23867,18 @@
         <v>100</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="K6" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -23412,17 +23896,18 @@
         <v>295</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="K7" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -23440,17 +23925,18 @@
         <v>295</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="K8" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -23462,17 +23948,18 @@
       <c r="E9" s="35"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="K9" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -23490,17 +23977,18 @@
         <v>100</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="K10" s="33" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -23518,17 +24006,18 @@
         <v>100</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="K11" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -23546,17 +24035,18 @@
         <v>100</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="K12" s="33" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="52"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -23574,17 +24064,18 @@
         <v>100</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="K13" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -23602,17 +24093,18 @@
         <v>295</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="K14" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -23630,17 +24122,18 @@
         <v>100</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="K15" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -23658,17 +24151,18 @@
         <v>100</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="K16" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -23686,15 +24180,18 @@
         <v>100</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="K17" s="34" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -23704,17 +24201,18 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="K18" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
@@ -23732,17 +24230,18 @@
         <v>332</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>197</v>
@@ -23760,17 +24259,18 @@
         <v>337</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="K20" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>198</v>
@@ -23788,17 +24288,18 @@
         <v>295</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>199</v>
@@ -23816,17 +24317,18 @@
         <v>295</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="K22" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>200</v>
@@ -23846,17 +24348,18 @@
       <c r="G23" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="K23" s="21" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -23874,15 +24377,18 @@
         <v>337</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="K24" s="34" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>202</v>
@@ -23900,17 +24406,18 @@
         <v>338</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="K25" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>203</v>
@@ -23928,17 +24435,18 @@
         <v>100</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="K26" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>204</v>
@@ -23956,15 +24464,18 @@
         <v>337</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="K27" s="34" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>205</v>
@@ -23984,17 +24495,20 @@
       <c r="G28" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="K28" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
@@ -24014,17 +24528,20 @@
       <c r="G29" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="K29" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
@@ -24044,17 +24561,20 @@
       <c r="G30" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="K30" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
@@ -24074,17 +24594,20 @@
       <c r="G31" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="K31" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
@@ -24104,17 +24627,20 @@
       <c r="G32" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="K32" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -24134,17 +24660,20 @@
       <c r="G33" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="K33" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -24164,17 +24693,20 @@
       <c r="G34" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="K34" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -24194,17 +24726,20 @@
       <c r="G35" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="K35" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -24224,17 +24759,20 @@
       <c r="G36" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="K36" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -24254,17 +24792,20 @@
       <c r="G37" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J37" s="33" t="s">
+      <c r="K37" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -24284,17 +24825,20 @@
       <c r="G38" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="K38" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -24314,17 +24858,20 @@
       <c r="G39" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J39" s="33" t="s">
+      <c r="K39" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>206</v>
@@ -24344,17 +24891,17 @@
       <c r="G40" t="s">
         <v>304</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J40" s="48" t="s">
+      <c r="K40" s="48" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="52" t="s">
         <v>175</v>
       </c>
@@ -24369,14 +24916,11 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J41" s="33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="33"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="21" t="s">
         <v>211</v>
@@ -24391,8 +24935,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>189</v>
@@ -24410,17 +24955,18 @@
         <v>542</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J43" s="33" t="s">
+      <c r="K43" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="21" t="s">
         <v>199</v>
@@ -24435,8 +24981,9 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>212</v>
@@ -24451,8 +24998,9 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="21" t="s">
         <v>202</v>
@@ -24467,8 +25015,9 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="21" t="s">
         <v>197</v>
@@ -24483,8 +25032,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>204</v>
@@ -24499,8 +25049,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="52" t="s">
         <v>176</v>
       </c>
@@ -24522,17 +25073,20 @@
       <c r="G49" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J49" s="33" t="s">
+      <c r="K49" s="33" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="21" t="s">
         <v>216</v>
@@ -24552,17 +25106,20 @@
       <c r="G50" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J50" s="33" t="s">
+      <c r="K50" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="52" t="s">
         <v>168</v>
       </c>
@@ -24584,17 +25141,20 @@
       <c r="G51" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J51" s="33" t="s">
+      <c r="K51" s="33" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="21" t="s">
         <v>215</v>
@@ -24614,17 +25174,20 @@
       <c r="G52" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J52" s="33" t="s">
+      <c r="K52" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="40.5">
+    <row r="53" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="52" t="s">
         <v>169</v>
       </c>
@@ -24646,17 +25209,18 @@
       <c r="G53" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J53" s="42" t="s">
+      <c r="K53" s="42" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="21" t="s">
         <v>217</v>
@@ -24676,17 +25240,18 @@
       <c r="G54" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J54" s="33" t="s">
+      <c r="K54" s="33" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="21" t="s">
         <v>220</v>
@@ -24706,17 +25271,18 @@
       <c r="G55" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J55" s="33" t="s">
+      <c r="K55" s="33" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="21" t="s">
         <v>219</v>
@@ -24736,17 +25302,18 @@
       <c r="G56" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J56" s="33" t="s">
+      <c r="K56" s="33" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
@@ -24766,17 +25333,18 @@
       <c r="G57" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J57" s="33" t="s">
+      <c r="K57" s="33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="27">
+    <row r="58" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="52" t="s">
         <v>106</v>
       </c>
@@ -24798,17 +25366,18 @@
       <c r="G58" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="21"/>
+      <c r="I58" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J58" s="48" t="s">
+      <c r="K58" s="48" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
@@ -24828,17 +25397,18 @@
       <c r="G59" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="21"/>
+      <c r="I59" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="33" t="s">
+      <c r="K59" s="33" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
         <v>219</v>
@@ -24858,17 +25428,18 @@
       <c r="G60" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="21"/>
+      <c r="I60" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J60" s="33" t="s">
+      <c r="K60" s="33" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="21" t="s">
         <v>215</v>
@@ -24888,17 +25459,18 @@
       <c r="G61" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="21"/>
+      <c r="I61" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J61" s="33" t="s">
+      <c r="K61" s="33" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="52" t="s">
         <v>104</v>
       </c>
@@ -24920,17 +25492,18 @@
       <c r="G62" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J62" s="49" t="s">
+      <c r="K62" s="49" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="21" t="s">
         <v>189</v>
@@ -24950,17 +25523,18 @@
       <c r="G63" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J63" s="21" t="s">
+      <c r="K63" s="21" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
         <v>218</v>
@@ -24980,18 +25554,19 @@
       <c r="G64" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J64" s="49" t="s">
+      <c r="K64" s="49" t="s">
         <v>469</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J64"/>
+  <autoFilter ref="A1:K64" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="8">
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -25008,21 +25583,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -25033,7 +25608,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -25044,7 +25619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="62" t="s">
         <v>166</v>
       </c>
@@ -25055,7 +25630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="62"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -25064,7 +25639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -25075,7 +25650,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -25086,7 +25661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -25097,7 +25672,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -25108,7 +25683,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -25119,7 +25694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -25130,8 +25705,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="56" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25141,8 +25716,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="59"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25150,7 +25725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -25161,7 +25736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -25172,7 +25747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -25183,7 +25758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
@@ -25194,7 +25769,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="63" t="s">
         <v>166</v>
       </c>
@@ -25205,7 +25780,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="63"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
@@ -25214,7 +25789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="63"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
@@ -25223,7 +25798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="63"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
@@ -25232,7 +25807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="63"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
@@ -25241,7 +25816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="63"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
@@ -25250,7 +25825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="63"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
@@ -25259,7 +25834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="63"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -25268,7 +25843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="63"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -25277,7 +25852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="63"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
@@ -25286,7 +25861,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
@@ -25297,7 +25872,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27">
+    <row r="40" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
@@ -25308,7 +25883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="63" t="s">
         <v>166</v>
       </c>
@@ -25319,7 +25894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="63"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
@@ -25328,7 +25903,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
@@ -25339,7 +25914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
@@ -25350,7 +25925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
@@ -25374,14 +25949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -25405,7 +25980,7 @@
     <col min="20" max="20" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
         <v>345</v>
       </c>
@@ -25437,7 +26012,7 @@
       <c r="S1" s="75"/>
       <c r="T1" s="75"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>348</v>
       </c>
@@ -25499,7 +26074,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>395</v>
       </c>
@@ -25549,7 +26124,7 @@
       </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>395</v>
       </c>
@@ -25599,7 +26174,7 @@
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>395</v>
       </c>
@@ -25649,7 +26224,7 @@
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>395</v>
       </c>
@@ -25699,7 +26274,7 @@
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>395</v>
       </c>
@@ -25749,7 +26324,7 @@
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>395</v>
       </c>
@@ -25799,7 +26374,7 @@
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>395</v>
       </c>
@@ -25849,7 +26424,7 @@
       </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>395</v>
       </c>
@@ -25899,7 +26474,7 @@
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>395</v>
       </c>
@@ -25949,7 +26524,7 @@
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>395</v>
       </c>
@@ -25999,7 +26574,7 @@
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>395</v>
       </c>
@@ -26049,7 +26624,7 @@
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>395</v>
       </c>
@@ -26099,7 +26674,7 @@
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>395</v>
       </c>
@@ -26149,7 +26724,7 @@
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>395</v>
       </c>
@@ -26199,7 +26774,7 @@
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>395</v>
       </c>
@@ -26249,7 +26824,7 @@
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>395</v>
       </c>
@@ -26299,7 +26874,7 @@
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>395</v>
       </c>
@@ -26349,7 +26924,7 @@
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>395</v>
       </c>
@@ -26399,7 +26974,7 @@
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>395</v>
       </c>
@@ -26449,7 +27024,7 @@
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>395</v>
       </c>
@@ -26499,7 +27074,7 @@
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>395</v>
       </c>
@@ -26549,7 +27124,7 @@
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>395</v>
       </c>
@@ -26595,7 +27170,7 @@
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>395</v>
       </c>
@@ -26641,7 +27216,7 @@
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>395</v>
       </c>
@@ -26687,7 +27262,7 @@
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -26724,7 +27299,7 @@
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -26764,7 +27339,7 @@
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -26802,7 +27377,7 @@
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -26842,7 +27417,7 @@
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -26882,7 +27457,7 @@
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -26922,7 +27497,7 @@
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -26962,7 +27537,7 @@
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -27002,7 +27577,7 @@
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -27042,7 +27617,7 @@
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -27082,7 +27657,7 @@
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -27122,7 +27697,7 @@
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -27162,7 +27737,7 @@
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -27202,7 +27777,7 @@
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -27242,7 +27817,7 @@
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -27282,7 +27857,7 @@
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -27322,7 +27897,7 @@
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -27362,7 +27937,7 @@
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -27402,7 +27977,7 @@
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -27436,7 +28011,7 @@
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -27470,7 +28045,7 @@
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -27504,7 +28079,7 @@
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -27538,7 +28113,7 @@
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -27572,7 +28147,7 @@
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -27606,7 +28181,7 @@
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -27634,7 +28209,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -27662,7 +28237,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -27690,7 +28265,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -27718,7 +28293,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -27746,7 +28321,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -27774,7 +28349,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -27802,7 +28377,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -27830,7 +28405,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -27858,7 +28433,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -27886,7 +28461,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -27914,7 +28489,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -27942,7 +28517,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27970,7 +28545,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -27998,7 +28573,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -28026,7 +28601,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -28054,7 +28629,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -28082,7 +28657,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -28110,7 +28685,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -28138,7 +28713,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -28166,7 +28741,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -28194,7 +28769,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -28222,7 +28797,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -28250,7 +28825,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -28278,7 +28853,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -28306,7 +28881,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -28334,7 +28909,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -28362,7 +28937,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -28390,7 +28965,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -28418,7 +28993,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -28446,7 +29021,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28474,7 +29049,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -28502,7 +29077,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -28530,7 +29105,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -28558,7 +29133,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -28586,7 +29161,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28614,7 +29189,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -28642,7 +29217,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -28670,7 +29245,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -28698,7 +29273,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -28726,7 +29301,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -28754,7 +29329,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -28782,7 +29357,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -28810,7 +29385,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -28838,7 +29413,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -28866,7 +29441,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -28894,7 +29469,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28922,7 +29497,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -28950,7 +29525,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -28978,7 +29553,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -29006,7 +29581,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -29034,7 +29609,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -29062,7 +29637,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -29090,7 +29665,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -29118,7 +29693,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -29146,7 +29721,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -29174,7 +29749,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -29202,7 +29777,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -29230,7 +29805,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -29258,7 +29833,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -29286,7 +29861,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -29314,7 +29889,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -29342,7 +29917,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -29370,7 +29945,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -29392,7 +29967,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -29414,7 +29989,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -29436,7 +30011,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -29458,7 +30033,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -29480,7 +30055,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -29502,7 +30077,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -29524,7 +30099,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -29546,7 +30121,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -29568,7 +30143,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -29590,7 +30165,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -29612,7 +30187,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -29634,7 +30209,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -29656,7 +30231,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -29678,7 +30253,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -29700,7 +30275,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -29722,7 +30297,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -29744,7 +30319,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -29766,7 +30341,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -29788,7 +30363,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -29810,7 +30385,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -29832,7 +30407,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -29854,7 +30429,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -29876,7 +30451,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -29898,7 +30473,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -29920,7 +30495,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -29942,7 +30517,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -29964,7 +30539,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -29986,7 +30561,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -30008,7 +30583,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -30030,7 +30605,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -30066,14 +30641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
@@ -30083,7 +30658,7 @@
     <col min="6" max="6" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -30101,7 +30676,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="52"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -30115,7 +30690,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="54">
+    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -30129,7 +30704,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27">
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
         <v>106</v>
       </c>
@@ -30149,7 +30724,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27">
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="50" t="s">
         <v>217</v>
@@ -30167,7 +30742,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27">
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="52"/>
       <c r="B8" s="50" t="s">
         <v>219</v>
@@ -30185,7 +30760,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27">
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>215</v>
@@ -30203,7 +30778,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27">
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
@@ -30223,7 +30798,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27">
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="3" t="s">
         <v>171</v>
@@ -30241,7 +30816,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27">
+    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="3" t="s">
         <v>171</v>
@@ -30259,7 +30834,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27">
+    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="3" t="s">
         <v>181</v>
@@ -30277,7 +30852,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27">
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="3" t="s">
         <v>172</v>
@@ -30295,7 +30870,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -30303,7 +30878,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="40.5">
+    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="52" t="s">
         <v>166</v>
       </c>
@@ -30323,7 +30898,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>206</v>
@@ -30341,7 +30916,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="40.5">
+    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>206</v>
@@ -30359,7 +30934,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="52" t="s">
         <v>372</v>
       </c>
@@ -30379,7 +30954,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -30387,7 +30962,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -30409,14 +30984,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
@@ -30426,7 +31001,7 @@
     <col min="7" max="7" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -30447,7 +31022,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="52"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -30462,7 +31037,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -30477,7 +31052,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="52"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -30492,7 +31067,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -30507,7 +31082,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="52"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -30522,7 +31097,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="52"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -30537,7 +31112,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>167</v>
@@ -30558,7 +31133,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
@@ -30581,7 +31156,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27">
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
         <v>171</v>
@@ -30602,7 +31177,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27">
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
         <v>171</v>
@@ -30623,7 +31198,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27">
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
         <v>171</v>
@@ -30644,7 +31219,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27">
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
         <v>171</v>
@@ -30665,7 +31240,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27">
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
         <v>171</v>
@@ -30686,7 +31261,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27">
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>171</v>
@@ -30707,7 +31282,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27">
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>171</v>
@@ -30728,7 +31303,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27">
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
         <v>171</v>
@@ -30749,7 +31324,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27">
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
         <v>171</v>
@@ -30770,7 +31345,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27">
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
         <v>171</v>
@@ -30791,7 +31366,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27">
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>171</v>
@@ -30812,7 +31387,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27">
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>171</v>
@@ -30833,7 +31408,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27">
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>171</v>
@@ -30854,7 +31429,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27">
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
         <v>171</v>
@@ -30875,7 +31450,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27">
+    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>171</v>
@@ -30896,7 +31471,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27">
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>171</v>
@@ -30917,7 +31492,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27">
+    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>171</v>
@@ -30938,7 +31513,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27">
+    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="21" t="s">
         <v>171</v>
@@ -30959,7 +31534,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27">
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
         <v>171</v>
@@ -30980,7 +31555,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="27">
+    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
         <v>171</v>
@@ -31001,7 +31576,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="27">
+    <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="21" t="s">
         <v>171</v>
@@ -31022,7 +31597,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="27">
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>171</v>
@@ -31043,7 +31618,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27">
+    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="21" t="s">
         <v>171</v>
@@ -31064,7 +31639,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="27">
+    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="21" t="s">
         <v>171</v>
@@ -31085,7 +31660,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="27">
+    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>171</v>
@@ -31106,7 +31681,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -31115,7 +31690,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -31124,7 +31699,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>167</v>
@@ -31145,7 +31720,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="27">
+    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="52" t="s">
         <v>165</v>
       </c>
@@ -31168,7 +31743,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="27">
+    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="3" t="s">
         <v>181</v>
@@ -31189,7 +31764,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27">
+    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>181</v>
@@ -31210,7 +31785,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="27">
+    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="52"/>
       <c r="B49" s="3" t="s">
         <v>181</v>
@@ -31231,7 +31806,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="27">
+    <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>181</v>
@@ -31252,7 +31827,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27">
+    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>181</v>
@@ -31273,7 +31848,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="27">
+    <row r="52" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>181</v>
@@ -31294,7 +31869,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="27">
+    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="3" t="s">
         <v>181</v>
@@ -31315,7 +31890,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27">
+    <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>181</v>
@@ -31336,7 +31911,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27">
+    <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="3" t="s">
         <v>181</v>
@@ -31357,7 +31932,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="27">
+    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>181</v>
@@ -31378,7 +31953,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="27">
+    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="3" t="s">
         <v>181</v>
@@ -31399,7 +31974,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="27">
+    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>181</v>
@@ -31420,7 +31995,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="27">
+    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="3" t="s">
         <v>181</v>
@@ -31441,7 +32016,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27">
+    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>181</v>
@@ -31462,7 +32037,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27">
+    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="3" t="s">
         <v>181</v>
@@ -31483,7 +32058,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27">
+    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>181</v>
@@ -31504,7 +32079,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="27">
+    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="3" t="s">
         <v>181</v>
@@ -31525,7 +32100,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="27">
+    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="3" t="s">
         <v>181</v>
@@ -31546,7 +32121,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="27">
+    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="3" t="s">
         <v>181</v>
@@ -31567,7 +32142,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="27">
+    <row r="66" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>181</v>
@@ -31588,7 +32163,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="27">
+    <row r="67" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="52"/>
       <c r="B67" s="3" t="s">
         <v>181</v>
@@ -31609,7 +32184,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="27">
+    <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
       <c r="B68" s="3" t="s">
         <v>181</v>
@@ -31630,7 +32205,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27">
+    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
       <c r="B69" s="3" t="s">
         <v>181</v>
@@ -31651,7 +32226,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="27">
+    <row r="70" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>181</v>
@@ -31672,7 +32247,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="27">
+    <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
       <c r="B71" s="3" t="s">
         <v>181</v>
@@ -31693,7 +32268,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -31702,7 +32277,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="52"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -31711,7 +32286,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>167</v>
@@ -31732,7 +32307,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="27">
+    <row r="78" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="52" t="s">
         <v>165</v>
       </c>
@@ -31755,7 +32330,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="27">
+    <row r="79" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="52"/>
       <c r="B79" s="3" t="s">
         <v>172</v>
@@ -31776,7 +32351,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="27">
+    <row r="80" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>172</v>
@@ -31797,7 +32372,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="27">
+    <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="52"/>
       <c r="B81" s="3" t="s">
         <v>172</v>
@@ -31818,7 +32393,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="27">
+    <row r="82" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="52"/>
       <c r="B82" s="3" t="s">
         <v>172</v>
@@ -31839,7 +32414,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="27">
+    <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="52"/>
       <c r="B83" s="3" t="s">
         <v>172</v>
@@ -31860,7 +32435,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="27">
+    <row r="84" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="52"/>
       <c r="B84" s="3" t="s">
         <v>172</v>
@@ -31881,7 +32456,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="27">
+    <row r="85" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="52"/>
       <c r="B85" s="3" t="s">
         <v>172</v>
@@ -31902,7 +32477,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="27">
+    <row r="86" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>172</v>
@@ -31923,7 +32498,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="27">
+    <row r="87" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="52"/>
       <c r="B87" s="3" t="s">
         <v>172</v>
@@ -31944,7 +32519,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="27">
+    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="52"/>
       <c r="B88" s="3" t="s">
         <v>172</v>
@@ -31965,7 +32540,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="27">
+    <row r="89" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="52"/>
       <c r="B89" s="3" t="s">
         <v>172</v>
@@ -31986,7 +32561,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="27">
+    <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="52"/>
       <c r="B90" s="3" t="s">
         <v>172</v>
@@ -32007,7 +32582,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="27">
+    <row r="91" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="52"/>
       <c r="B91" s="3" t="s">
         <v>172</v>
@@ -32028,7 +32603,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="27">
+    <row r="92" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="52"/>
       <c r="B92" s="3" t="s">
         <v>172</v>
@@ -32049,7 +32624,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="27">
+    <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="52"/>
       <c r="B93" s="3" t="s">
         <v>172</v>
@@ -32070,7 +32645,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="27">
+    <row r="94" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="52"/>
       <c r="B94" s="3" t="s">
         <v>172</v>
@@ -32091,7 +32666,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="27">
+    <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="52"/>
       <c r="B95" s="3" t="s">
         <v>172</v>
@@ -32112,7 +32687,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="27">
+    <row r="96" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="52"/>
       <c r="B96" s="3" t="s">
         <v>172</v>
@@ -32133,7 +32708,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="27">
+    <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="52"/>
       <c r="B97" s="3" t="s">
         <v>172</v>
@@ -32154,7 +32729,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="27">
+    <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="52"/>
       <c r="B98" s="3" t="s">
         <v>172</v>
@@ -32175,7 +32750,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="27">
+    <row r="99" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="52"/>
       <c r="B99" s="3" t="s">
         <v>172</v>
@@ -32196,7 +32771,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="27">
+    <row r="100" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="52"/>
       <c r="B100" s="3" t="s">
         <v>172</v>
@@ -32217,7 +32792,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="27">
+    <row r="101" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="52"/>
       <c r="B101" s="3" t="s">
         <v>172</v>
@@ -32238,7 +32813,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="27">
+    <row r="102" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="52"/>
       <c r="B102" s="3" t="s">
         <v>172</v>
@@ -32259,7 +32834,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="27">
+    <row r="103" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A103" s="52"/>
       <c r="B103" s="3" t="s">
         <v>172</v>
@@ -32280,7 +32855,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="52"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -32289,7 +32864,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="52"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -32298,7 +32873,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>167</v>
@@ -32319,7 +32894,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="27">
+    <row r="110" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="52" t="s">
         <v>104</v>
       </c>
@@ -32342,7 +32917,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="27">
+    <row r="111" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="52"/>
       <c r="B111" s="21" t="s">
         <v>189</v>
@@ -32363,7 +32938,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="27">
+    <row r="112" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A112" s="52"/>
       <c r="B112" s="21" t="s">
         <v>187</v>
@@ -32384,7 +32959,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>167</v>
@@ -32405,7 +32980,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="27">
+    <row r="116" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A116" s="52" t="s">
         <v>166</v>
       </c>
@@ -32428,7 +33003,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="27">
+    <row r="117" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A117" s="52"/>
       <c r="B117" s="21" t="s">
         <v>206</v>
@@ -32449,7 +33024,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="27">
+    <row r="118" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A118" s="52"/>
       <c r="B118" s="21" t="s">
         <v>206</v>
@@ -32470,7 +33045,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="27">
+    <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A119" s="52"/>
       <c r="B119" s="21" t="s">
         <v>206</v>
@@ -32491,7 +33066,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="27">
+    <row r="120" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A120" s="52"/>
       <c r="B120" s="21" t="s">
         <v>206</v>
@@ -32512,7 +33087,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="27">
+    <row r="121" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="52"/>
       <c r="B121" s="21" t="s">
         <v>206</v>
@@ -32533,7 +33108,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="27">
+    <row r="122" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A122" s="52"/>
       <c r="B122" s="21" t="s">
         <v>206</v>
@@ -32554,7 +33129,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="27">
+    <row r="123" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A123" s="52"/>
       <c r="B123" s="21" t="s">
         <v>206</v>
@@ -32575,7 +33150,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="27">
+    <row r="124" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="52"/>
       <c r="B124" s="21" t="s">
         <v>206</v>
@@ -32596,7 +33171,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="27">
+    <row r="125" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="52"/>
       <c r="B125" s="21" t="s">
         <v>206</v>
@@ -32617,7 +33192,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="27">
+    <row r="126" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="52"/>
       <c r="B126" s="21" t="s">
         <v>206</v>
@@ -32638,7 +33213,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="27">
+    <row r="127" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="52"/>
       <c r="B127" s="21" t="s">
         <v>206</v>
@@ -32659,7 +33234,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="27">
+    <row r="128" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A128" s="52"/>
       <c r="B128" s="21" t="s">
         <v>206</v>
@@ -32680,7 +33255,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1">
+    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="52"/>
       <c r="B129" s="21" t="s">
         <v>206</v>
@@ -32701,7 +33276,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="27">
+    <row r="130" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="52"/>
       <c r="B130" s="21" t="s">
         <v>206</v>
@@ -32722,7 +33297,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="27">
+    <row r="131" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="52"/>
       <c r="B131" s="21" t="s">
         <v>206</v>
@@ -32743,7 +33318,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="27">
+    <row r="132" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="52"/>
       <c r="B132" s="21" t="s">
         <v>206</v>
@@ -32764,7 +33339,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="27">
+    <row r="133" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="52"/>
       <c r="B133" s="21" t="s">
         <v>206</v>
@@ -32785,7 +33360,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="27">
+    <row r="134" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A134" s="52"/>
       <c r="B134" s="21" t="s">
         <v>206</v>
@@ -32806,7 +33381,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="27">
+    <row r="135" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A135" s="52"/>
       <c r="B135" s="21" t="s">
         <v>206</v>
@@ -32827,7 +33402,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="27">
+    <row r="136" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A136" s="52"/>
       <c r="B136" s="21" t="s">
         <v>206</v>
@@ -32848,7 +33423,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="27">
+    <row r="137" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A137" s="52"/>
       <c r="B137" s="21" t="s">
         <v>206</v>
@@ -32869,7 +33444,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="27">
+    <row r="138" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A138" s="52"/>
       <c r="B138" s="21" t="s">
         <v>206</v>
@@ -32890,7 +33465,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="27">
+    <row r="139" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A139" s="52"/>
       <c r="B139" s="21" t="s">
         <v>206</v>
@@ -32911,7 +33486,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="27">
+    <row r="140" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A140" s="52"/>
       <c r="B140" s="21" t="s">
         <v>206</v>
@@ -32932,7 +33507,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="27">
+    <row r="141" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="52"/>
       <c r="B141" s="21" t="s">
         <v>206</v>
@@ -32953,7 +33528,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="27">
+    <row r="142" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="52"/>
       <c r="B142" s="21" t="s">
         <v>206</v>

--- a/Sonia_IndiaLab_English_20200708.xlsx
+++ b/Sonia_IndiaLab_English_20200708.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\Sonia Quality Assurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7CC74F-658E-40A5-9B14-BD51287D22D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F552D-A626-4AF7-B9BD-6ED37BA79021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="DataBase_Details" sheetId="13" r:id="rId7"/>
     <sheet name="Table_Missing" sheetId="14" r:id="rId8"/>
     <sheet name="Field Missing" sheetId="15" r:id="rId9"/>
-    <sheet name="Application_Used_More_DB" sheetId="16" r:id="rId10"/>
+    <sheet name="Application_Used_More_thenoneDB" sheetId="16" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Application_Used_More_DB!$A$1:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Application_Used_More_thenoneDB!$A$1:$E$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ini File Details'!$A$1:$K$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'App placement (necessary)'!$A$1:$E$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'アプリ配置 (必須)'!$A$1:$D$86</definedName>
@@ -23677,8 +23677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
